--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6CEEE-B2B4-44D6-9E1C-CD455744F64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A2780-1F3C-48F9-9B3E-DFE70B079383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="28800" windowHeight="7830" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>rowid</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191218.csv</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20190921.csv</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +658,23 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
@@ -660,9 +683,11 @@
     <hyperlink ref="C4:C5" r:id="rId4" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{407C1BE7-9490-4661-BC30-07F9C1CD1B2C}"/>
     <hyperlink ref="D2" r:id="rId5" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C02B099-3543-4FDE-A178-CD6D6DBBC63A}"/>
     <hyperlink ref="C2" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
+    <hyperlink ref="D6" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
+    <hyperlink ref="C6" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A2780-1F3C-48F9-9B3E-DFE70B079383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B1A1A-407F-4AE3-89D2-609AC52E37C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="28800" windowHeight="7830" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>rowid</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20190921.csv</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191216.csv</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +220,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +682,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
@@ -685,9 +709,11 @@
     <hyperlink ref="C2" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
     <hyperlink ref="D6" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
     <hyperlink ref="C6" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
+    <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
+    <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B1A1A-407F-4AE3-89D2-609AC52E37C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505442E-9E52-43E0-B54E-D2DEE849ABA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>rowid</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191216.csv</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_31DEC2019\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191231.csv</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_31122019</t>
   </si>
 </sst>
 </file>
@@ -536,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +711,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
@@ -711,9 +740,11 @@
     <hyperlink ref="C6" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
     <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
+    <hyperlink ref="D8" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C8" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505442E-9E52-43E0-B54E-D2DEE849ABA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA54FBF-A722-4D71-8045-39450F5467FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>rowid</t>
   </si>
@@ -115,13 +115,25 @@
   </si>
   <si>
     <t>01_TL_Base_Rates_31122019</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_31012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_31JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200131.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +172,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -548,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +746,25 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
     <hyperlink ref="C3" r:id="rId2" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D4056747-E844-4D5C-90C1-5C11EC476849}"/>
@@ -742,9 +778,11 @@
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D8" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C8" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C9" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D9" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA54FBF-A722-4D71-8045-39450F5467FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E30B3E-16C3-4932-8802-C60884222E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>rowid</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200131.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191108.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191206.csv</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -235,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,14 +255,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,22 +590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,192 +622,242 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D4056747-E844-4D5C-90C1-5C11EC476849}"/>
-    <hyperlink ref="D4:D5" r:id="rId3" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{39E7DDA4-AAF5-41BF-807B-8AC13C4EBB6E}"/>
-    <hyperlink ref="C4:C5" r:id="rId4" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{407C1BE7-9490-4661-BC30-07F9C1CD1B2C}"/>
-    <hyperlink ref="D2" r:id="rId5" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C02B099-3543-4FDE-A178-CD6D6DBBC63A}"/>
-    <hyperlink ref="C2" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
-    <hyperlink ref="D6" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
-    <hyperlink ref="C6" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
+    <hyperlink ref="D5" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
+    <hyperlink ref="C5" r:id="rId2" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D4056747-E844-4D5C-90C1-5C11EC476849}"/>
+    <hyperlink ref="D8:D9" r:id="rId3" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{39E7DDA4-AAF5-41BF-807B-8AC13C4EBB6E}"/>
+    <hyperlink ref="C8:C9" r:id="rId4" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{407C1BE7-9490-4661-BC30-07F9C1CD1B2C}"/>
+    <hyperlink ref="D4" r:id="rId5" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C02B099-3543-4FDE-A178-CD6D6DBBC63A}"/>
+    <hyperlink ref="C4" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
+    <hyperlink ref="D2" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
+    <hyperlink ref="C2" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
     <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
-    <hyperlink ref="D8" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
-    <hyperlink ref="C8" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C9" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D9" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D10" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C10" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C11" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D11" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
+    <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
+    <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
+    <hyperlink ref="C6" r:id="rId18" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EBC0465F-D16C-46F0-B685-F68650E09CBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -816,16 +891,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA54FBF-A722-4D71-8045-39450F5467FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA8832-41AA-4268-A77B-024EED86E9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>rowid</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200131.csv</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191125.csv</t>
   </si>
 </sst>
 </file>
@@ -566,22 +572,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +609,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -626,7 +632,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -649,7 +655,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -672,7 +678,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -695,7 +701,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -712,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -729,37 +735,54 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -776,13 +799,15 @@
     <hyperlink ref="C6" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
     <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
-    <hyperlink ref="D8" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
-    <hyperlink ref="C8" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C9" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D9" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D9" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C9" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C10" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D10" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D8" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D784FED6-4637-446B-A6EC-E54E773E1F49}"/>
+    <hyperlink ref="C8" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{DB4DFA0E-B038-44BD-9583-7E0D5FC09B93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -791,17 +816,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723925\Desktop\Work\Logs\UAT\PT Health\Base Rates\updated from dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A1E7E-32F1-4422-93F6-C132BC5E0CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7D373-5581-4C3C-A935-3FF9068E34D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>rowid</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191125.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20190918.csv</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,12 +254,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +299,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,23 +624,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +662,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -648,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -671,7 +702,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -694,7 +725,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -717,7 +748,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -740,7 +771,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -757,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -780,7 +811,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -803,54 +834,71 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -867,19 +915,21 @@
     <hyperlink ref="C2" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
     <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
-    <hyperlink ref="D11" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
-    <hyperlink ref="C11" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C12" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D12" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D12" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C12" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C13" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D13" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
     <hyperlink ref="C6" r:id="rId18" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EBC0465F-D16C-46F0-B685-F68650E09CBE}"/>
     <hyperlink ref="C10" r:id="rId19" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0FC5C92D-97AF-47F0-82A6-56F0027DD7CA}"/>
     <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
+    <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
+    <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -891,14 +941,14 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7D373-5581-4C3C-A935-3FF9068E34D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F24EE-B192-4181-AB23-A39A637F515C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2730" windowWidth="29040" windowHeight="16440" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>rowid</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_07022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_07FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200207.csv</t>
   </si>
   <si>
     <t>12</t>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +899,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>28</v>
@@ -900,6 +912,23 @@
       </c>
       <c r="E13" s="9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -927,9 +956,11 @@
     <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
+    <hyperlink ref="C14" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D14" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F24EE-B192-4181-AB23-A39A637F515C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2377526C-1318-4530-9A7A-68FFCA576C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>rowid</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_03012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_03JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200103.csv</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +332,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,36 +913,53 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -946,8 +978,8 @@
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D12" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C12" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C13" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D13" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C14" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D14" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -956,11 +988,13 @@
     <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C14" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D14" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C15" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D15" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C13" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
+    <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2377526C-1318-4530-9A7A-68FFCA576C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED4089-83D9-407A-9340-85B00E35F787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>rowid</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_15012020</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200115.csv</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_15JAN2020\</t>
   </si>
 </sst>
 </file>
@@ -651,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +973,23 @@
       </c>
       <c r="E15" s="9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -992,9 +1021,11 @@
     <hyperlink ref="D15" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C13" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
+    <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
+    <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED4089-83D9-407A-9340-85B00E35F787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B885E-31A5-4824-B5EE-4B653B913DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>rowid</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_15JAN2020\</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_19022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_19FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200219.csv</t>
   </si>
 </sst>
 </file>
@@ -663,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,6 +1002,23 @@
       </c>
       <c r="E16" s="9" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1023,9 +1052,11 @@
     <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
+    <hyperlink ref="C17" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D17" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B885E-31A5-4824-B5EE-4B653B913DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2378404-DAAA-43EF-821A-813E09EDEBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,58 +953,58 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
@@ -1036,8 +1036,8 @@
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D12" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C12" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C14" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D14" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C15" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D15" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1046,12 +1046,12 @@
     <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C15" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D15" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C16" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D16" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C13" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
-    <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
-    <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
+    <hyperlink ref="C14" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
+    <hyperlink ref="D14" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
     <hyperlink ref="C17" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
     <hyperlink ref="D17" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
   </hyperlinks>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2378404-DAAA-43EF-821A-813E09EDEBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC6BDA-D834-4996-8944-96BEA7D580CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>rowid</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200219.csv</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_23012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_23JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200123.csv</t>
   </si>
 </sst>
 </file>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1031,23 @@
       </c>
       <c r="E17" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1054,9 +1083,11 @@
     <hyperlink ref="D14" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
     <hyperlink ref="C17" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
     <hyperlink ref="D17" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C18" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
+    <hyperlink ref="D18" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC6BDA-D834-4996-8944-96BEA7D580CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECB30C-9FA9-4D65-9A95-9B42467B86D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>rowid</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200123.csv</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_03022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_03FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200203.csv</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,21 +994,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -1004,50 +1016,67 @@
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1065,8 +1094,8 @@
     <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D12" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C12" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C15" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D15" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C16" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D16" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1075,19 +1104,21 @@
     <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C16" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D16" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C18" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D18" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C13" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C14" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D14" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C17" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D17" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
-    <hyperlink ref="C18" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
-    <hyperlink ref="D18" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
+    <hyperlink ref="C19" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D19" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C15" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
+    <hyperlink ref="D15" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
+    <hyperlink ref="C17" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECB30C-9FA9-4D65-9A95-9B42467B86D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE52DA-F57F-45CD-B341-66DB7457BAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>rowid</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_17022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_17FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200217.csv</t>
   </si>
 </sst>
 </file>
@@ -699,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,20 +1074,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1110,15 +1139,17 @@
     <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C14" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D14" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C19" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D19" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C20" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D20" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
     <hyperlink ref="C15" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
     <hyperlink ref="D15" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
     <hyperlink ref="C17" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECB30C-9FA9-4D65-9A95-9B42467B86D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0679C0-3ADE-4627-B638-E9A06654CD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE52DA-F57F-45CD-B341-66DB7457BAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508EA344-0794-4CDE-B28D-71EBB345947E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>rowid</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200217.csv</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_31MAR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200331.csv</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_31032020</t>
   </si>
 </sst>
 </file>
@@ -711,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>63</v>
       </c>
@@ -1106,6 +1118,23 @@
       </c>
       <c r="E20" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1147,9 +1176,11 @@
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C21" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D21" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508EA344-0794-4CDE-B28D-71EBB345947E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC176D0-0F49-46AC-948D-C34CA23D0DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>rowid</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>01_TL_Base_Rates_31032020</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_24022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_24FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200224.csv</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -723,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,15 +1137,32 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1176,11 +1205,13 @@
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C21" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D21" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C22" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D22" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C21" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D21" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508EA344-0794-4CDE-B28D-71EBB345947E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D2C00-6F2E-4EF1-81DA-6D872E038ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>rowid</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>01_TL_Base_Rates_31032020</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_16032020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_16MAR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200316.csv</t>
   </si>
 </sst>
 </file>
@@ -723,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,15 +1137,32 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1176,11 +1205,13 @@
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C21" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D21" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C22" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D22" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C21" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D294DDE4-B2EC-45EE-B97A-BB4BA2784877}"/>
+    <hyperlink ref="D21" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6ADD8C4F-6240-4F68-9B5D-8DFC115E3064}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u724659\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2FAEE-7EA2-41BF-9127-8C9F81B32B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0466183F-50AE-4311-8A18-CDF1E91A12B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>rowid</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200316.csv</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_04032020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_04MAR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200304.csv</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -747,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,37 +1173,54 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1234,15 +1263,17 @@
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C23" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D23" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C24" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D24" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
     <hyperlink ref="C21" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
     <hyperlink ref="D21" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C22" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D22" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C23" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D23" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C22" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D22" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0466183F-50AE-4311-8A18-CDF1E91A12B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E3C1C-8D39-4C09-BFBE-CA631FD23C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>rowid</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1225,11 @@
       </c>
       <c r="E24" s="9" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E3C1C-8D39-4C09-BFBE-CA631FD23C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E36E70-69BF-4411-BE45-1F1FC7DF65EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>rowid</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_20032020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_20MAR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200320.csv</t>
   </si>
 </sst>
 </file>
@@ -762,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,20 +1227,37 @@
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1271,17 +1300,19 @@
     <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C24" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D24" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C25" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D25" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
     <hyperlink ref="C21" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
     <hyperlink ref="D21" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
     <hyperlink ref="C23" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
     <hyperlink ref="D23" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
     <hyperlink ref="C22" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
     <hyperlink ref="D22" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C24" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D24" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E36E70-69BF-4411-BE45-1F1FC7DF65EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278B52CC-C1E6-4841-AA3B-3DA2F0ECE010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>rowid</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200320.csv</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_15042020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_15APR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200415.csv</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,6 +1266,23 @@
       </c>
       <c r="E25" s="9" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,9 +1339,11 @@
     <hyperlink ref="D22" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
     <hyperlink ref="C24" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
     <hyperlink ref="D24" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C26" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D26" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278B52CC-C1E6-4841-AA3B-3DA2F0ECE010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67FAC14-A9EF-4297-9C4E-6BA66CF0A735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>rowid</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200415.csv</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_04SEP2019\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20190904.csv</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,9 +476,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1000,34 +1006,34 @@
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,315 +1041,334 @@
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
-    <hyperlink ref="C5" r:id="rId2" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D4056747-E844-4D5C-90C1-5C11EC476849}"/>
-    <hyperlink ref="D8:D9" r:id="rId3" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{39E7DDA4-AAF5-41BF-807B-8AC13C4EBB6E}"/>
-    <hyperlink ref="C8:C9" r:id="rId4" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{407C1BE7-9490-4661-BC30-07F9C1CD1B2C}"/>
-    <hyperlink ref="D4" r:id="rId5" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C02B099-3543-4FDE-A178-CD6D6DBBC63A}"/>
-    <hyperlink ref="C4" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
-    <hyperlink ref="D2" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
-    <hyperlink ref="C2" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
-    <hyperlink ref="D7" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
-    <hyperlink ref="C7" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
-    <hyperlink ref="D12" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
-    <hyperlink ref="C12" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C16" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D16" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
-    <hyperlink ref="D3" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
-    <hyperlink ref="C3" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
-    <hyperlink ref="D6" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
-    <hyperlink ref="C6" r:id="rId18" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EBC0465F-D16C-46F0-B685-F68650E09CBE}"/>
-    <hyperlink ref="C10" r:id="rId19" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0FC5C92D-97AF-47F0-82A6-56F0027DD7CA}"/>
-    <hyperlink ref="D10" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
-    <hyperlink ref="D11" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
-    <hyperlink ref="C11" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C18" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D18" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
-    <hyperlink ref="C13" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
-    <hyperlink ref="D13" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
-    <hyperlink ref="C14" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
-    <hyperlink ref="D14" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C20" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D20" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
-    <hyperlink ref="C15" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
-    <hyperlink ref="D15" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
-    <hyperlink ref="C17" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
-    <hyperlink ref="D17" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C19" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D19" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C25" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D25" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C21" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D21" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C23" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D23" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C22" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D22" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C24" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D24" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C26" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D26" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="D6" r:id="rId1" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BC47C54F-DEBA-4A4C-B7BD-5C1F7EAEAC13}"/>
+    <hyperlink ref="C6" r:id="rId2" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D4056747-E844-4D5C-90C1-5C11EC476849}"/>
+    <hyperlink ref="D9:D10" r:id="rId3" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{39E7DDA4-AAF5-41BF-807B-8AC13C4EBB6E}"/>
+    <hyperlink ref="C9:C10" r:id="rId4" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{407C1BE7-9490-4661-BC30-07F9C1CD1B2C}"/>
+    <hyperlink ref="D5" r:id="rId5" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C02B099-3543-4FDE-A178-CD6D6DBBC63A}"/>
+    <hyperlink ref="C5" r:id="rId6" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDA2A936-5571-40FB-ACD9-716945EE58E8}"/>
+    <hyperlink ref="D3" r:id="rId7" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1FEBEDA4-A8F6-4C12-9223-52C62F6A804E}"/>
+    <hyperlink ref="C3" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
+    <hyperlink ref="D8" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
+    <hyperlink ref="C8" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
+    <hyperlink ref="D13" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C13" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C17" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D17" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D4" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
+    <hyperlink ref="C4" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
+    <hyperlink ref="D7" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
+    <hyperlink ref="C7" r:id="rId18" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EBC0465F-D16C-46F0-B685-F68650E09CBE}"/>
+    <hyperlink ref="C11" r:id="rId19" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0FC5C92D-97AF-47F0-82A6-56F0027DD7CA}"/>
+    <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
+    <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
+    <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
+    <hyperlink ref="C19" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D19" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C14" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
+    <hyperlink ref="D14" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
+    <hyperlink ref="C15" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
+    <hyperlink ref="D15" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
+    <hyperlink ref="C21" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D21" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C16" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
+    <hyperlink ref="D16" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
+    <hyperlink ref="C18" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D18" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C20" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D20" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C26" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D26" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C22" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D22" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C24" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D24" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C23" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D23" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C25" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D25" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C27" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D27" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
+    <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67FAC14-A9EF-4297-9C4E-6BA66CF0A735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2C62E-2006-455D-B804-52FA98B2C667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>rowid</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20191230.csv</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -792,23 +798,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +836,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -847,7 +853,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -870,7 +876,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -893,7 +899,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -916,7 +922,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -939,7 +945,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -956,7 +962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -979,7 +985,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1008,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1053,263 +1059,280 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1326,10 +1349,10 @@
     <hyperlink ref="C3" r:id="rId8" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{91054E13-F530-43F8-897A-07580A2AEEAF}"/>
     <hyperlink ref="D8" r:id="rId9" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{2E8EA7CD-A546-4721-91A5-240576566310}"/>
     <hyperlink ref="C8" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
-    <hyperlink ref="D13" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
-    <hyperlink ref="C13" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C17" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D17" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="D14" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
+    <hyperlink ref="C14" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
+    <hyperlink ref="C18" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D18" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D4" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C4" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D7" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1338,37 +1361,39 @@
     <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C19" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D19" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
-    <hyperlink ref="C14" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
-    <hyperlink ref="D14" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
-    <hyperlink ref="C15" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
-    <hyperlink ref="D15" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C21" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D21" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
-    <hyperlink ref="C16" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
-    <hyperlink ref="D16" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
-    <hyperlink ref="C18" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
-    <hyperlink ref="D18" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C20" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D20" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C26" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D26" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C22" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D22" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C24" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D24" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C23" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D23" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C25" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D25" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C27" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D27" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C20" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D20" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C15" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
+    <hyperlink ref="D15" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
+    <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
+    <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
+    <hyperlink ref="C22" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D22" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C17" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
+    <hyperlink ref="D17" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
+    <hyperlink ref="C19" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D19" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C21" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D21" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C27" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D27" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C23" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D23" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C25" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D25" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C24" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D24" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C26" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D26" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C28" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D28" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
+    <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
+    <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -1380,14 +1405,14 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2C62E-2006-455D-B804-52FA98B2C667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245533F-55C5-4C44-9FF5-AE1A2BB170AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>rowid</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_20012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_20JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200120.csv</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -798,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,16 +1161,16 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1166,16 +1178,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1183,16 +1195,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1200,16 +1212,16 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1217,16 +1229,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1234,16 +1246,16 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1251,16 +1263,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1268,16 +1280,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1285,16 +1297,16 @@
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1302,16 +1314,16 @@
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1319,20 +1331,37 @@
         <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1351,8 +1380,8 @@
     <hyperlink ref="C8" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D14" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C14" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C18" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D18" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C19" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D19" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D4" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C4" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D7" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1361,39 +1390,41 @@
     <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C20" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D20" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C21" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D21" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C15" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D15" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C22" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D22" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C23" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D23" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
     <hyperlink ref="C17" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
     <hyperlink ref="D17" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
-    <hyperlink ref="C19" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
-    <hyperlink ref="D19" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C21" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D21" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C27" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D27" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C23" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D23" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C25" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D25" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C24" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D24" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C26" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D26" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C28" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D28" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C20" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D20" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C22" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D22" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C28" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D28" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C24" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D24" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C26" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D26" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C25" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D25" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C27" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D27" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C29" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D29" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
+    <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
+    <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2C62E-2006-455D-B804-52FA98B2C667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4872820-C31E-42C2-8DAF-33A23343CEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>rowid</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_15052020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_15MAY2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200515.csv</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -801,20 +813,20 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +848,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -853,7 +865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -876,7 +888,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -899,7 +911,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -922,7 +934,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -945,7 +957,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -962,7 +974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -985,7 +997,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1020,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>96</v>
       </c>
@@ -1331,7 +1343,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>83</v>
       </c>
@@ -1391,9 +1420,11 @@
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
+    <hyperlink ref="C29" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{20BD75E5-2EAD-4B3A-903A-477536AFCFE8}"/>
+    <hyperlink ref="D29" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4C9E1BDE-3947-4D43-9D7F-DD4855F4CDF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -1405,14 +1436,14 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u724659\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A6D52-6DF8-4D15-9073-09E78BDD3DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45013D0-4FB0-452A-9B8F-6F3E32226404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>rowid</t>
   </si>
@@ -327,6 +327,18 @@
     <t>27</t>
   </si>
   <si>
+    <t>01_TL_Base_Rates_20012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_20JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200120.csv</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>01_TL_Base_Rates_15052020</t>
   </si>
   <si>
@@ -336,7 +348,7 @@
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200515.csv</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -810,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,16 +1173,16 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1190,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,16 +1207,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,16 +1224,16 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,16 +1241,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,16 +1258,16 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,16 +1275,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,16 +1292,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,16 +1309,16 @@
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,16 +1326,16 @@
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1343,16 @@
         <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,20 +1360,37 @@
         <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1380,8 +1409,8 @@
     <hyperlink ref="C8" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D14" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C14" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C18" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D18" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C19" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D19" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D4" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C4" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D7" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1390,41 +1419,43 @@
     <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C20" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D20" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C21" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D21" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C15" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D15" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C22" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D22" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C23" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D23" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
     <hyperlink ref="C17" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
     <hyperlink ref="D17" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
-    <hyperlink ref="C19" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
-    <hyperlink ref="D19" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C21" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D21" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C27" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D27" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C23" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D23" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C25" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D25" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C24" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D24" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C26" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D26" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C28" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D28" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C20" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D20" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C22" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D22" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C28" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D28" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C24" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D24" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C26" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D26" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C25" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D25" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C27" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D27" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C29" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D29" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
-    <hyperlink ref="C29" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{BBD30BDF-00B8-44D5-AE8B-DD3D43F96A47}"/>
-    <hyperlink ref="D29" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1D73D385-815F-489B-9435-9CAE1C54ADD5}"/>
+    <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
+    <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
+    <hyperlink ref="C30" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
+    <hyperlink ref="D30" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u724659\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45013D0-4FB0-452A-9B8F-6F3E32226404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1AE730-9F9E-4DFD-876D-2F3188E2160B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>rowid</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_06012020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_06JAN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200106.csv</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -822,23 +834,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +872,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -877,7 +889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -900,7 +912,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -923,7 +935,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -946,7 +958,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -969,7 +981,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -986,7 +998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1021,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1044,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1134,41 +1146,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1185,212 +1197,229 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1409,8 +1438,8 @@
     <hyperlink ref="C8" r:id="rId10" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D32611A9-A7C5-4DD4-BCCF-DA8133CD25B4}"/>
     <hyperlink ref="D14" r:id="rId11" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{70815E86-B823-45F9-AC04-6D2D692DF861}"/>
     <hyperlink ref="C14" r:id="rId12" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3A752EAB-A2F0-4B6A-A66D-032CEEC610CE}"/>
-    <hyperlink ref="C19" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
-    <hyperlink ref="D19" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
+    <hyperlink ref="C20" r:id="rId13" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D2AEB5F3-3204-4436-AD53-801A83DD4EBE}"/>
+    <hyperlink ref="D20" r:id="rId14" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EAD750A5-37C4-46A7-9B44-118A9975371E}"/>
     <hyperlink ref="D4" r:id="rId15" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5F24D8F4-ADA1-47AC-95D6-7968D6A09C50}"/>
     <hyperlink ref="C4" r:id="rId16" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6F4AE858-8863-4D89-9817-A612F222D040}"/>
     <hyperlink ref="D7" r:id="rId17" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1689072D-A1FB-4764-96D9-65D8022C4964}"/>
@@ -1419,43 +1448,45 @@
     <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C21" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D21" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C22" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D22" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C15" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D15" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
-    <hyperlink ref="C16" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
-    <hyperlink ref="D16" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C23" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D23" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
-    <hyperlink ref="C17" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
-    <hyperlink ref="D17" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
-    <hyperlink ref="C20" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
-    <hyperlink ref="D20" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C22" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D22" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C28" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D28" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C24" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D24" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C26" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D26" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C25" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D25" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C27" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D27" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C29" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D29" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C17" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
+    <hyperlink ref="D17" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
+    <hyperlink ref="C24" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D24" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C19" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
+    <hyperlink ref="D19" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
+    <hyperlink ref="C21" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
+    <hyperlink ref="D21" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
+    <hyperlink ref="C23" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D23" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C29" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D29" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C25" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D25" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C27" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D27" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C26" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D26" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C28" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D28" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C30" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D30" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
     <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
     <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
-    <hyperlink ref="C30" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
-    <hyperlink ref="D30" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
+    <hyperlink ref="C31" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
+    <hyperlink ref="D31" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
+    <hyperlink ref="C16" r:id="rId57" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8288803C-C9BE-408D-BBC6-28CEACB0B084}"/>
+    <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
 </worksheet>
 </file>
 
@@ -1467,14 +1498,14 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1AE730-9F9E-4DFD-876D-2F3188E2160B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0CC39-EA3E-414B-851B-5FFFAD75E161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>rowid</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_04022020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_04FEB2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200204.csv</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -834,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,16 +1265,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1270,16 +1282,16 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1287,16 +1299,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1304,16 +1316,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1321,16 +1333,16 @@
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1338,16 +1350,16 @@
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1355,16 +1367,16 @@
         <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1372,16 +1384,16 @@
         <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1389,16 +1401,16 @@
         <v>104</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1406,20 +1418,37 @@
         <v>108</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="6" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1448,45 +1477,47 @@
     <hyperlink ref="D11" r:id="rId20" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{28D6E063-1A13-4EE4-9635-6B563297A460}"/>
     <hyperlink ref="D12" r:id="rId21" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{4DF6CFC3-BDCF-4610-B062-0DBDD3BA2867}"/>
     <hyperlink ref="C12" r:id="rId22" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B4BBE60E-ECDA-42CC-8227-1E0F590B6063}"/>
-    <hyperlink ref="C22" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
-    <hyperlink ref="D22" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
+    <hyperlink ref="C23" r:id="rId23" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A1392737-75BD-4B08-801B-426CE5631F3F}"/>
+    <hyperlink ref="D23" r:id="rId24" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{38D310A5-27BA-4A2A-B06F-99C45615013F}"/>
     <hyperlink ref="C15" r:id="rId25" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EC5028D8-19EE-4A5D-8630-ADFFD353D502}"/>
     <hyperlink ref="D15" r:id="rId26" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FDDBAFB6-B333-490E-B77D-1C8743D3E12B}"/>
     <hyperlink ref="C17" r:id="rId27" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{45E8D193-08A6-4F4A-96EE-B54BBAB37372}"/>
     <hyperlink ref="D17" r:id="rId28" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5EE5A545-9714-41D3-876A-3D94B6DD87EA}"/>
-    <hyperlink ref="C24" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
-    <hyperlink ref="D24" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
+    <hyperlink ref="C25" r:id="rId29" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{0BDC0653-E3A8-439B-B2B0-9D715294B0B8}"/>
+    <hyperlink ref="D25" r:id="rId30" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E273B7EF-844E-4766-B928-9979CFA5B572}"/>
     <hyperlink ref="C19" r:id="rId31" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{25B9118A-8384-4480-8F25-36D9D388AB4C}"/>
     <hyperlink ref="D19" r:id="rId32" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FB16881B-FC05-46D7-9BD2-DF33F0DC9095}"/>
     <hyperlink ref="C21" r:id="rId33" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB9A20BF-0A23-49AB-A38C-A936AD770CD8}"/>
     <hyperlink ref="D21" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
-    <hyperlink ref="C23" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
-    <hyperlink ref="D23" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C29" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D29" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
-    <hyperlink ref="C25" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
-    <hyperlink ref="D25" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
-    <hyperlink ref="C27" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
-    <hyperlink ref="D27" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
-    <hyperlink ref="C26" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
-    <hyperlink ref="D26" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C28" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D28" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C30" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D30" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C24" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
+    <hyperlink ref="D24" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
+    <hyperlink ref="C30" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D30" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C26" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
+    <hyperlink ref="D26" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
+    <hyperlink ref="C28" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
+    <hyperlink ref="D28" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
+    <hyperlink ref="C27" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
+    <hyperlink ref="D27" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
+    <hyperlink ref="C29" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D29" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C31" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D31" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
     <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
     <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
-    <hyperlink ref="C31" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
-    <hyperlink ref="D31" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
+    <hyperlink ref="C32" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
+    <hyperlink ref="D32" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
     <hyperlink ref="C16" r:id="rId57" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8288803C-C9BE-408D-BBC6-28CEACB0B084}"/>
     <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
+    <hyperlink ref="C22" r:id="rId59" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5844C654-69B4-4DFC-8439-9E2FEAFC765B}"/>
+    <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId61"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0CC39-EA3E-414B-851B-5FFFAD75E161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88057410-7267-4057-8F17-1363A4ACA803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>rowid</t>
   </si>
@@ -285,9 +285,6 @@
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -373,6 +370,18 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_19JUN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200619.csv</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_19062020</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
@@ -1121,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
@@ -1163,16 +1172,16 @@
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1197,16 +1206,16 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1265,16 +1274,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1313,7 +1322,7 @@
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>52</v>
@@ -1330,7 +1339,7 @@
     </row>
     <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>71</v>
@@ -1347,7 +1356,7 @@
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>79</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -1381,24 +1390,24 @@
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>70</v>
@@ -1415,41 +1424,53 @@
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>83</v>
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1515,9 +1536,11 @@
     <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
     <hyperlink ref="C22" r:id="rId59" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5844C654-69B4-4DFC-8439-9E2FEAFC765B}"/>
     <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
+    <hyperlink ref="C33" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A39F13E1-5178-4D13-9EF4-01AC7005AEB2}"/>
+    <hyperlink ref="D33" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{84E83F00-DC80-426B-ABC3-4BFD3388C81F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId61"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0CC39-EA3E-414B-851B-5FFFAD75E161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DCE720-F220-443C-935A-5609638E4F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>rowid</t>
   </si>
@@ -285,9 +285,6 @@
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -373,6 +370,18 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_25052020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_25MAY2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200525.csv</t>
   </si>
 </sst>
 </file>
@@ -848,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
@@ -1121,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
@@ -1163,16 +1172,16 @@
         <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1197,16 +1206,16 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1265,16 +1274,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1313,7 +1322,7 @@
     </row>
     <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>52</v>
@@ -1330,7 +1339,7 @@
     </row>
     <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>71</v>
@@ -1347,7 +1356,7 @@
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>79</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -1381,24 +1390,24 @@
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>70</v>
@@ -1415,41 +1424,53 @@
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>83</v>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1515,9 +1536,11 @@
     <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
     <hyperlink ref="C22" r:id="rId59" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5844C654-69B4-4DFC-8439-9E2FEAFC765B}"/>
     <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
+    <hyperlink ref="C33" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
+    <hyperlink ref="D33" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId61"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB35E20F-173A-4DF9-B5F4-498FF0C591B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAAAE6-988E-4FBE-85F3-90CE5572A530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>rowid</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_03042020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_03APR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200403.csv</t>
   </si>
 </sst>
 </file>
@@ -867,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,70 +1444,85 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1551,27 +1575,29 @@
     <hyperlink ref="D27" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
     <hyperlink ref="C29" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
     <hyperlink ref="D29" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C31" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D31" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C32" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D32" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
     <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
     <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
-    <hyperlink ref="C32" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
-    <hyperlink ref="D32" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
+    <hyperlink ref="C33" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
+    <hyperlink ref="D33" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
     <hyperlink ref="C16" r:id="rId57" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8288803C-C9BE-408D-BBC6-28CEACB0B084}"/>
     <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
     <hyperlink ref="C22" r:id="rId59" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5844C654-69B4-4DFC-8439-9E2FEAFC765B}"/>
     <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
-    <hyperlink ref="C33" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
-    <hyperlink ref="D33" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
-    <hyperlink ref="C34" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3E7545E9-C79B-494A-92AA-BC3D5DEA63EF}"/>
-    <hyperlink ref="D34" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3C6D99C9-8F0D-41B6-A3DB-1786F9B70201}"/>
+    <hyperlink ref="C34" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
+    <hyperlink ref="D34" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
+    <hyperlink ref="C35" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3E7545E9-C79B-494A-92AA-BC3D5DEA63EF}"/>
+    <hyperlink ref="D35" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3C6D99C9-8F0D-41B6-A3DB-1786F9B70201}"/>
+    <hyperlink ref="C31" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{65AE2E53-9BD7-47CD-AA08-AC69D9AF5CE8}"/>
+    <hyperlink ref="D31" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAAAE6-988E-4FBE-85F3-90CE5572A530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C114D6-B4E2-46EA-AE1B-F60EE3AFC172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>rowid</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200403.csv</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,7 +1447,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>120</v>
       </c>
@@ -1460,7 +1465,7 @@
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>88</v>
@@ -1477,7 +1482,7 @@
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>100</v>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>113</v>
@@ -1511,7 +1516,7 @@
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>118</v>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C114D6-B4E2-46EA-AE1B-F60EE3AFC172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E49BC-FD80-45E3-A9CE-2EE258267D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>rowid</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_18032020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_18MAR2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200318.csv</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -879,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,16 +1429,16 @@
         <v>99</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1434,16 +1446,16 @@
         <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1451,16 +1463,16 @@
         <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1468,16 +1480,16 @@
         <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1485,16 +1497,16 @@
         <v>112</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1502,16 +1514,16 @@
         <v>119</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1519,15 +1531,32 @@
         <v>123</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1570,39 +1599,41 @@
     <hyperlink ref="D21" r:id="rId34" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E7ED670A-C93A-4D33-8D6B-C2A84F6272BF}"/>
     <hyperlink ref="C24" r:id="rId35" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FEFD670A-BEB8-4A0B-98C5-2AFD4DEAD2BD}"/>
     <hyperlink ref="D24" r:id="rId36" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{AB25DD26-7137-4B60-8CDB-1EB5B00EE84D}"/>
-    <hyperlink ref="C30" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
-    <hyperlink ref="D30" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
+    <hyperlink ref="C31" r:id="rId37" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B18C013E-BB2E-4151-85B5-939674E1518A}"/>
+    <hyperlink ref="D31" r:id="rId38" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{681506BD-6C7D-465C-B4C1-2DE78EEE8983}"/>
     <hyperlink ref="C26" r:id="rId39" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{439E8B61-D40D-4F84-B8BE-9700FC2ADD62}"/>
     <hyperlink ref="D26" r:id="rId40" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5E6AC098-5E3E-4433-93A6-C293BACD8FDC}"/>
     <hyperlink ref="C28" r:id="rId41" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6337C7C3-22E8-4713-B355-F29F547C2E90}"/>
     <hyperlink ref="D28" r:id="rId42" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{61348313-29E4-410E-A720-44ABC90AACF2}"/>
     <hyperlink ref="C27" r:id="rId43" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{81D4A9F8-C5E5-4FB2-B5C6-66060C673A7C}"/>
     <hyperlink ref="D27" r:id="rId44" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{79C6B99F-3134-484C-BF17-FF032736A4F6}"/>
-    <hyperlink ref="C29" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
-    <hyperlink ref="D29" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
-    <hyperlink ref="C32" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
-    <hyperlink ref="D32" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
+    <hyperlink ref="C30" r:id="rId45" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F6E541ED-A56D-4990-98EC-140DB39C69BA}"/>
+    <hyperlink ref="D30" r:id="rId46" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A0CF9FAE-BAE8-4388-B3DA-F87DE7AAD9AE}"/>
+    <hyperlink ref="C33" r:id="rId47" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE8FBBD9-8143-413A-8354-C1249A1B80F8}"/>
+    <hyperlink ref="D33" r:id="rId48" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8C4BE03A-3602-4A55-A11A-8786FAAD6358}"/>
     <hyperlink ref="D2" r:id="rId49" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{6E419829-2BDF-4BBE-A274-10468CF12194}"/>
     <hyperlink ref="C2" r:id="rId50" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{1044188A-0CC2-46A6-AF0B-7E0E318E3BBB}"/>
     <hyperlink ref="D13" r:id="rId51" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A17B272C-43AD-4151-94AD-47B87D6B708E}"/>
     <hyperlink ref="C13" r:id="rId52" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{EFFBBE0C-C4E8-4F5F-A0C8-095EE75D20B6}"/>
     <hyperlink ref="C18" r:id="rId53" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{9EC466D1-595B-455F-A36E-BBB028031D59}"/>
     <hyperlink ref="D18" r:id="rId54" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{18ED2C79-8C35-4BD9-B35A-11AA7B42CEA0}"/>
-    <hyperlink ref="C33" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
-    <hyperlink ref="D33" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
+    <hyperlink ref="C34" r:id="rId55" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{769ACBE5-76F4-4E13-9E8F-419435C979E3}"/>
+    <hyperlink ref="D34" r:id="rId56" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F81ECE11-23E4-4CD6-8981-226F9F076BA2}"/>
     <hyperlink ref="C16" r:id="rId57" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8288803C-C9BE-408D-BBC6-28CEACB0B084}"/>
     <hyperlink ref="D16" r:id="rId58" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{B1BB336E-0BCF-45DD-9AA8-88BEE46D99B2}"/>
     <hyperlink ref="C22" r:id="rId59" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5844C654-69B4-4DFC-8439-9E2FEAFC765B}"/>
     <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
-    <hyperlink ref="C34" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
-    <hyperlink ref="D34" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
-    <hyperlink ref="C35" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3E7545E9-C79B-494A-92AA-BC3D5DEA63EF}"/>
-    <hyperlink ref="D35" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3C6D99C9-8F0D-41B6-A3DB-1786F9B70201}"/>
-    <hyperlink ref="C31" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{65AE2E53-9BD7-47CD-AA08-AC69D9AF5CE8}"/>
-    <hyperlink ref="D31" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
+    <hyperlink ref="C35" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
+    <hyperlink ref="D35" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
+    <hyperlink ref="C36" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3E7545E9-C79B-494A-92AA-BC3D5DEA63EF}"/>
+    <hyperlink ref="D36" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3C6D99C9-8F0D-41B6-A3DB-1786F9B70201}"/>
+    <hyperlink ref="C32" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{65AE2E53-9BD7-47CD-AA08-AC69D9AF5CE8}"/>
+    <hyperlink ref="D32" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
+    <hyperlink ref="C29" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{86DE96D5-5261-470D-B003-3A70E1031960}"/>
+    <hyperlink ref="D29" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{46E174F3-BCED-4D2D-84F9-08C5AB30594B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E49BC-FD80-45E3-A9CE-2EE258267D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB1289-C518-4C3A-BC82-13ADF3CAA271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
@@ -384,15 +384,6 @@
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200525.csv</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200619.csv</t>
-  </si>
-  <si>
-    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_19JUN2020\</t>
-  </si>
-  <si>
-    <t>01_TL_Base_Rates_19062020</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -418,6 +409,15 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_18062020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_18JUN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200618.csv</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,16 +1429,16 @@
         <v>99</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1480,16 +1480,16 @@
         <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>100</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>113</v>
@@ -1545,19 +1545,19 @@
     </row>
     <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1625,12 +1625,12 @@
     <hyperlink ref="D22" r:id="rId60" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{252985E3-9A80-4FF8-A235-18A6C144A5B4}"/>
     <hyperlink ref="C35" r:id="rId61" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{D098A547-A5AF-4261-B3C2-89795C10F358}"/>
     <hyperlink ref="D35" r:id="rId62" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{5002C250-CEFE-49C8-AF95-42E42BF0A6B9}"/>
-    <hyperlink ref="C36" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3E7545E9-C79B-494A-92AA-BC3D5DEA63EF}"/>
-    <hyperlink ref="D36" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{3C6D99C9-8F0D-41B6-A3DB-1786F9B70201}"/>
-    <hyperlink ref="C32" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{65AE2E53-9BD7-47CD-AA08-AC69D9AF5CE8}"/>
-    <hyperlink ref="D32" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
-    <hyperlink ref="C29" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{86DE96D5-5261-470D-B003-3A70E1031960}"/>
-    <hyperlink ref="D29" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{46E174F3-BCED-4D2D-84F9-08C5AB30594B}"/>
+    <hyperlink ref="C32" r:id="rId63" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{65AE2E53-9BD7-47CD-AA08-AC69D9AF5CE8}"/>
+    <hyperlink ref="D32" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
+    <hyperlink ref="C29" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{86DE96D5-5261-470D-B003-3A70E1031960}"/>
+    <hyperlink ref="D29" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{46E174F3-BCED-4D2D-84F9-08C5AB30594B}"/>
+    <hyperlink ref="C36" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8EB7C98B-CCF3-465C-8FCF-E4099F5CC55F}"/>
+    <hyperlink ref="D36" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E529D6E0-1952-492D-BF76-A8A667954238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB1289-C518-4C3A-BC82-13ADF3CAA271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E8191-BAB2-45CA-92CD-038A24801FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>rowid</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200618.csv</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_24072020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_24JUL2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200724.csv</t>
   </si>
 </sst>
 </file>
@@ -891,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,6 +1567,23 @@
       </c>
       <c r="E36" s="9" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1631,9 +1657,11 @@
     <hyperlink ref="D29" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{46E174F3-BCED-4D2D-84F9-08C5AB30594B}"/>
     <hyperlink ref="C36" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8EB7C98B-CCF3-465C-8FCF-E4099F5CC55F}"/>
     <hyperlink ref="D36" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E529D6E0-1952-492D-BF76-A8A667954238}"/>
+    <hyperlink ref="C37" r:id="rId69" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{A19EC366-8DCF-42AB-ADF6-7D7CB85743CB}"/>
+    <hyperlink ref="D37" r:id="rId70" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE6CF50A-DF85-4B60-9D42-80363789E1E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId71"/>
 </worksheet>
 </file>
 

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Data_Set_New_UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB1289-C518-4C3A-BC82-13ADF3CAA271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0B19E-906F-4FCA-B206-D08134C02D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57B0A42-B9E9-4F9A-A394-E95B8E00D96E}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="132">
   <si>
     <t>rowid</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200618.csv</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>01_TL_Base_Rates_16062020</t>
+  </si>
+  <si>
+    <t>\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_16JUN2020\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_20200616.csv</t>
   </si>
 </sst>
 </file>
@@ -891,23 +903,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C826-6239-4631-B7A2-7901FE3648F4}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +941,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -946,7 +958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -969,7 +981,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1004,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1027,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1050,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1090,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1113,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -1169,7 +1181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>83</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>87</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>93</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>99</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>103</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>107</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>112</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>120</v>
       </c>
@@ -1543,20 +1555,37 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1629,11 +1658,13 @@
     <hyperlink ref="D32" r:id="rId64" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{75880BAE-E134-4461-B4EB-AA92D4207F38}"/>
     <hyperlink ref="C29" r:id="rId65" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{86DE96D5-5261-470D-B003-3A70E1031960}"/>
     <hyperlink ref="D29" r:id="rId66" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{46E174F3-BCED-4D2D-84F9-08C5AB30594B}"/>
-    <hyperlink ref="C36" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8EB7C98B-CCF3-465C-8FCF-E4099F5CC55F}"/>
-    <hyperlink ref="D36" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E529D6E0-1952-492D-BF76-A8A667954238}"/>
+    <hyperlink ref="C37" r:id="rId67" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{8EB7C98B-CCF3-465C-8FCF-E4099F5CC55F}"/>
+    <hyperlink ref="D37" r:id="rId68" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{E529D6E0-1952-492D-BF76-A8A667954238}"/>
+    <hyperlink ref="C36" r:id="rId69" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{F5DDE6F0-45AF-4AC9-95DD-EDD3CA1418B8}"/>
+    <hyperlink ref="D36" r:id="rId70" display="\\DataSet\\TL_DataSet\\BaseRates_GSFile\\" xr:uid="{FE237DDD-4FFD-4FDF-A51E-5E4283D85A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId71"/>
 </worksheet>
 </file>
 
@@ -1645,14 +1676,14 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
